--- a/biology/Zoologie/Aaptos_aaptos/Aaptos_aaptos.xlsx
+++ b/biology/Zoologie/Aaptos_aaptos/Aaptos_aaptos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aaptos aaptos est une éponge qui s'avère être très toxique pour la plupart des spongivores car elle contient des molécules bloqueuses des récepteurs adrénergiques.
-Elles sont néanmoins consommées par les tortues imbriquées[1] et par le Umbraculum umbraculum[2].
+Elles sont néanmoins consommées par les tortues imbriquées et par le Umbraculum umbraculum.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve dans la mer Méditerranée, notamment dans l'Adriatique.
 </t>
@@ -543,7 +557,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard Oscar Schmidt la décrit en 1864 sous le protonyme de Ancorina aaptos dans son ouvrage Supplement der Spongien des adriatischen Meeres.
 </t>
